--- a/art/src/art/WEB-INF/templates/sample-jxls3.xlsx
+++ b/art/src/art/WEB-INF/templates/sample-jxls3.xlsx
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,35 +99,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -174,6 +163,23 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -226,7 +232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,10 +243,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -257,11 +263,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="236620032"/>
-        <c:axId val="236632704"/>
+        <c:axId val="210234368"/>
+        <c:axId val="210264832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236620032"/>
+        <c:axId val="210234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,7 +276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236632704"/>
+        <c:crossAx val="210264832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -278,7 +284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236632704"/>
+        <c:axId val="210264832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236620032"/>
+        <c:crossAx val="210234368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -347,11 +353,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:B5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A4:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A4:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Item" dataDxfId="3"/>
-    <tableColumn id="2" name="Volume" dataDxfId="2"/>
+    <tableColumn id="1" name="Item" dataDxfId="1"/>
+    <tableColumn id="2" name="Volume" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -681,7 +687,69 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
